--- a/AgentProxy/resources/customer/customer#2.xlsx
+++ b/AgentProxy/resources/customer/customer#2.xlsx
@@ -12,7 +12,7 @@
     <sheet name="job3" sheetId="3" r:id="rId3"/>
     <sheet name="job4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
@@ -938,7 +938,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>2.2999999999999998</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
